--- a/InputData/Burialmodels.xlsx
+++ b/InputData/Burialmodels.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20385"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3D3F27-3BF6-4689-91A2-EFBD3CC96F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52940D7C-5D8E-4B2F-A731-16FB6D494CBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="C5:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>69</v>
+        <v>68.5</v>
       </c>
       <c r="E2" s="3">
-        <v>11.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>53.5</v>
+        <v>53.8</v>
       </c>
       <c r="E3" s="3">
-        <v>8.1999999999999993</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
       <c r="E4" s="3">
-        <v>8.6999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,10 +901,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -934,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1086,7 +1089,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
